--- a/BlockZoneMatching/hh_size/Richmond_size.xlsx
+++ b/BlockZoneMatching/hh_size/Richmond_size.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:J340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
